--- a/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
+++ b/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeGym\LibraryManagement\src\main\java\com\example\librarymanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -461,12 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -482,14 +473,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,13 +514,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>2788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>198119</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -814,967 +814,987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" style="7" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37" style="7" customWidth="1"/>
-    <col min="6" max="6" width="3" style="7" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="35" style="7" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="32.21875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="34" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37" style="6" customWidth="1"/>
+    <col min="6" max="6" width="3" style="6" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="35" style="6" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32.21875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="14" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="4" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="17" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="17" t="s">
+      <c r="J32" s="7"/>
+      <c r="K32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="1" t="s">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="1" t="s">
+      <c r="J34" s="7"/>
+      <c r="K34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4" t="s">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="4" t="s">
+      <c r="J35" s="7"/>
+      <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="23" t="s">
+      <c r="B38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K39" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I40" s="1" t="s">
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I41" s="4" t="s">
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I44" s="23" t="s">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K45" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I46" s="1" t="s">
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I47" s="4" t="s">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
+++ b/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
-    <t>Tìm kiếm theo tên || Tìm kiếm theo nhà xuất bản || Tìm kiếm theo tác giả: Books</t>
-  </si>
-  <si>
     <t>Tìm kiếm theo mã độc giả || Tìm kiếm theo tên độc giả: độc giả</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Hiển thị danh sách sách trong phiếu mượn: void</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo mã sách || Tìm kiếm theo tên || Tìm kiếm theo nhà xuất bản || Tìm kiếm theo tác giả: Books</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,27 +839,27 @@
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -871,27 +871,27 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -903,27 +903,27 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -935,27 +935,27 @@
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -967,27 +967,27 @@
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -999,27 +999,27 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1031,27 +1031,27 @@
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1063,25 +1063,25 @@
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1103,11 +1103,11 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1129,11 +1129,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1155,11 +1155,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1183,7 +1183,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="17" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1287,27 +1287,27 @@
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1319,25 +1319,25 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1353,7 +1353,7 @@
       <c r="C20" s="23"/>
       <c r="D20" s="7"/>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1361,7 +1361,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="7"/>
       <c r="K20" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1377,7 +1377,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1425,7 +1425,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1615,11 +1615,11 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -1659,11 +1659,11 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -1682,11 +1682,11 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I39" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1755,27 +1755,27 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I45" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1784,18 +1784,18 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
+++ b/src/main/java/com/example/librarymanagement/LibraryManagement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Tìm kiếm theo mã độc giả || Tìm kiếm theo tên độc giả: độc giả</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>edit(T t, T t): void</t>
-  </si>
-  <si>
-    <t>show(): void</t>
   </si>
   <si>
     <t>IManagement &lt;T t&gt;</t>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>Tìm kiếm theo mã sách || Tìm kiếm theo tên || Tìm kiếm theo nhà xuất bản || Tìm kiếm theo tác giả: Books</t>
+  </si>
+  <si>
+    <t>Tự động chuyển đổi trạng thái khi quá hạn(String id, Reader reader)</t>
+  </si>
+  <si>
+    <t>findIndexById: void</t>
   </si>
 </sst>
 </file>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,11 +1258,11 @@
     </row>
     <row r="17" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
@@ -1267,15 +1270,15 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="22" t="s">
@@ -1333,7 +1336,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="19" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="11" t="s">
@@ -1377,12 +1380,12 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="7"/>
       <c r="K21" s="20"/>
       <c r="L21" s="7"/>
@@ -1402,7 +1405,9 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="20"/>
       <c r="L22" s="7"/>
@@ -1422,7 +1427,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="7"/>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1435,7 +1440,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1444,7 +1449,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1477,7 +1482,7 @@
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1565,7 +1570,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1799,12 +1804,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="K20:K22"/>
-    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
